--- a/data/trans_bre/P59A-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P59A-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-4.041042622331409</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-1.035523331484173</v>
+        <v>-1.035523331484171</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.3824080304531102</v>
@@ -649,7 +649,7 @@
         <v>-0.2344721888189435</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.07880096754226852</v>
+        <v>-0.07880096754226841</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-8.915017228181291</v>
+        <v>-9.166763458593982</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-8.419125058054385</v>
+        <v>-8.091125515014278</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-10.47661382152508</v>
+        <v>-10.77181468209805</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-6.992804428269511</v>
+        <v>-6.589999232287427</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.7141244668572658</v>
+        <v>-0.7076937988532236</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.4804950502009605</v>
+        <v>-0.4965839267805694</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.4903901690318498</v>
+        <v>-0.5169111854101087</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.4168530117539352</v>
+        <v>-0.400300645908936</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9177241580425464</v>
+        <v>1.055077738384392</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.122445302416892</v>
+        <v>4.780406339791305</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.710944067637313</v>
+        <v>1.706574495799647</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.378827583908606</v>
+        <v>4.019736956994894</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1850512436164384</v>
+        <v>0.174614447494348</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5251200168823973</v>
+        <v>0.4673607192120792</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2266202985085999</v>
+        <v>0.12800077574371</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.4446904832230387</v>
+        <v>0.4591084003516249</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-1.154149990178801</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-1.350107746403117</v>
+        <v>-1.350107746403112</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.2544668627724021</v>
@@ -749,7 +749,7 @@
         <v>-0.06872246558107743</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.08064501361863319</v>
+        <v>-0.08064501361863288</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-8.07924378057619</v>
+        <v>-7.775098169370236</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-7.856409523013777</v>
+        <v>-7.895913477352101</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-6.141980192693766</v>
+        <v>-6.817156241781289</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-6.942307893437021</v>
+        <v>-6.565370162648065</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5440332416541172</v>
+        <v>-0.5569210233293936</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4334262320060018</v>
+        <v>-0.4310088339123387</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3288021160342812</v>
+        <v>-0.3499988664031414</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3385859263066667</v>
+        <v>-0.324357020815841</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.725767181430113</v>
+        <v>1.814513434784143</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.785479303171914</v>
+        <v>2.341553696741541</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.329752964805081</v>
+        <v>3.56135445645194</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.037104085016393</v>
+        <v>4.288482800689188</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2096363642851148</v>
+        <v>0.1970416730950468</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2492167162191776</v>
+        <v>0.2027065403531923</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2917736834029362</v>
+        <v>0.2592646918844723</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2859705295621007</v>
+        <v>0.3321147438494995</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-9.445129222457417</v>
+        <v>-9.304359622430445</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-11.01106705788817</v>
+        <v>-11.35953118914584</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-9.784997980199975</v>
+        <v>-9.293190500327048</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-9.040858476140464</v>
+        <v>-8.800595976615778</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.5209065126861551</v>
+        <v>-0.5229046802821344</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.5001104580571331</v>
+        <v>-0.5140526975052599</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.4625666654899835</v>
+        <v>-0.464942167241128</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.3786354542176035</v>
+        <v>-0.3701113957282799</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.960472832112826</v>
+        <v>2.690892532732937</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.998532784972775</v>
+        <v>1.780076853968732</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.989688597802714</v>
+        <v>2.382006873997182</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.08748625299468</v>
+        <v>4.281230136307952</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.2998193394853857</v>
+        <v>0.2673818470020398</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1449154967750256</v>
+        <v>0.1185448987081376</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1542751921344092</v>
+        <v>0.1709558651022026</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.2080865480140463</v>
+        <v>0.2889890650681423</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-4.889484776098271</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-4.343326268311372</v>
+        <v>-4.343326268311376</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.2547490280715456</v>
@@ -949,7 +949,7 @@
         <v>-0.262468124477201</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.2763517696574804</v>
+        <v>-0.2763517696574807</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-9.178937035645641</v>
+        <v>-9.047645751817997</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.535593061886347</v>
+        <v>-2.513225993199688</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-9.880105401450418</v>
+        <v>-10.21587566922269</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-9.320745860135508</v>
+        <v>-9.253182685571835</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4594945066635626</v>
+        <v>-0.4427266785551598</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1589331451489731</v>
+        <v>-0.1536488270489653</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4608718480343189</v>
+        <v>-0.4658663366015453</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.479061698979046</v>
+        <v>-0.4859823153823752</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4342598718705421</v>
+        <v>0.03792984129447224</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.548076669902944</v>
+        <v>7.655693704525153</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-0.2048250870061196</v>
+        <v>0.01700635868353054</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-0.02535290333794836</v>
+        <v>-0.3506378390818018</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.03875608839675374</v>
+        <v>0.01919995255236053</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6704623676566657</v>
+        <v>0.6815741039061411</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.008226911857704593</v>
+        <v>0.01281541249661557</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.006998818760892176</v>
+        <v>-0.01843441070966877</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.913113556012548</v>
+        <v>-6.175897103345701</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.032375015185539</v>
+        <v>-3.763622350545692</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-6.113940870717893</v>
+        <v>-6.114077963842849</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-5.305654741909244</v>
+        <v>-5.171753864792089</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.3961583765360256</v>
+        <v>-0.396289390896632</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.2386808772358182</v>
+        <v>-0.22415747956322</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.319985023224208</v>
+        <v>-0.3242043279242326</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.2948579299857681</v>
+        <v>-0.2864056833765566</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.7260569705490457</v>
+        <v>-0.9473429071810846</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.787315250567715</v>
+        <v>2.084344010270078</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.7338346812901367</v>
+        <v>-0.6156683433757841</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-0.03053732024480053</v>
+        <v>0.1071978077594954</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.05845348082100316</v>
+        <v>-0.0724978203360121</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1328784299572967</v>
+        <v>0.1537299489273419</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.04446365603385387</v>
+        <v>-0.04423708959961689</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.004505295027733954</v>
+        <v>0.0102864108848999</v>
       </c>
     </row>
     <row r="19">
